--- a/python/two/night SD t1=6 t2=3 δ=0.9.xlsx
+++ b/python/two/night SD t1=6 t2=3 δ=0.9.xlsx
@@ -473,22 +473,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.00e+00</t>
+          <t>6.04e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.05e-07</t>
+          <t>0.0714</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.95e+00</t>
+          <t>6.08e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0404</t>
+          <t>0.216</t>
         </is>
       </c>
     </row>
@@ -505,22 +505,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.42e+00</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0167</t>
+          <t>183.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.54e+00</t>
+          <t>5.94e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1310.0</t>
+          <t>0.0548</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.42e+00</t>
+          <t>1.01e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0167</t>
+          <t>185.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.54e+00</t>
+          <t>5.98e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1310.0</t>
+          <t>0.0656</t>
         </is>
       </c>
     </row>
@@ -569,22 +569,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8.76e-01</t>
+          <t>7.03e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.000436</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9.95e-01</t>
+          <t>3.91e-02</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>782.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.51e-11</t>
+          <t>4.77e-06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.98e-06</t>
+          <t>4.34e-06</t>
         </is>
       </c>
     </row>
